--- a/data/manual_evaluation/results/counter_eval_mo.xlsx
+++ b/data/manual_evaluation/results/counter_eval_mo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE6622-1ACB-42C7-8401-FB147CBBBBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D7B10-7E4B-477F-B125-EEF9A072FDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="eval_sample_all (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="803">
   <si>
     <t>ID</t>
   </si>
@@ -2122,9 +2121,6 @@
     <t>Although this is quaite vauge, it is the only counter argument that opposes the main argument in any reasonable way.</t>
   </si>
   <si>
-    <t>This is</t>
-  </si>
-  <si>
     <t>Again, this is a very vauge counter argument, it does not address any of the issues stated in the main argument, it just reiterates some of the senstences in the main argument.</t>
   </si>
   <si>
@@ -2432,6 +2428,12 @@
   </si>
   <si>
     <t xml:space="preserve">This is the worst counter argument because reiterates the points stated in the main argument and does not oppose it in any way </t>
+  </si>
+  <si>
+    <t>This is the only counter argument that offers a coherent opposition to the main argument, although it countains some vauge sentences.</t>
+  </si>
+  <si>
+    <t>This contains contradicting statements, although it ends with a solid point.</t>
   </si>
 </sst>
 </file>
@@ -2880,19 +2882,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E397" sqref="E397"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.53125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.06640625" style="1" customWidth="1"/>
-    <col min="6" max="1023" width="11.53125" style="1"/>
-    <col min="1024" max="1025" width="11.53125"/>
+    <col min="1" max="1" width="9.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.08984375" style="1" customWidth="1"/>
+    <col min="6" max="1023" width="11.54296875" style="1"/>
+    <col min="1024" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="2" customFormat="1" ht="26" customHeight="1">
@@ -2913,7 +2915,7 @@
       </c>
       <c r="AMJ1" s="3"/>
     </row>
-    <row r="2" spans="1:1024" ht="255">
+    <row r="2" spans="1:1024" ht="250">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="102">
+    <row r="3" spans="1:1024" ht="100">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="63.75">
+    <row r="4" spans="1:1024" ht="62.5">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="102">
+    <row r="5" spans="1:1024" ht="100">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="204">
+    <row r="6" spans="1:1024" ht="200">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="102">
+    <row r="7" spans="1:1024" ht="100">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="89.25">
+    <row r="8" spans="1:1024" ht="87.5">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="51">
+    <row r="9" spans="1:1024" ht="50">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="395.25">
+    <row r="10" spans="1:1024" ht="375">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="102">
+    <row r="11" spans="1:1024" ht="100">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="76.5">
+    <row r="12" spans="1:1024" ht="75">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="76.5">
+    <row r="13" spans="1:1024" ht="75">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="165.75">
+    <row r="14" spans="1:1024" ht="162.5">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="63.75">
+    <row r="15" spans="1:1024" ht="62.5">
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="102">
+    <row r="16" spans="1:1024" ht="100">
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="76.5">
+    <row r="17" spans="1:5" ht="62.5">
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="242.25">
+    <row r="18" spans="1:5" ht="237.5">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="102">
+    <row r="19" spans="1:5" ht="100">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="89.25">
+    <row r="20" spans="1:5" ht="87.5">
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="76.5">
+    <row r="21" spans="1:5" ht="75">
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="102">
+    <row r="22" spans="1:5" ht="100">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="76.5">
+    <row r="23" spans="1:5" ht="75">
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63.75">
+    <row r="24" spans="1:5" ht="62.5">
       <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="102">
+    <row r="25" spans="1:5" ht="100">
       <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="114.75">
+    <row r="26" spans="1:5" ht="100">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="63.75">
+    <row r="27" spans="1:5" ht="62.5">
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="63.75">
+    <row r="28" spans="1:5" ht="62.5">
       <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="63.75">
+    <row r="29" spans="1:5" ht="62.5">
       <c r="C29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="178.5">
+    <row r="30" spans="1:5" ht="175">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="51">
+    <row r="31" spans="1:5" ht="50">
       <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="76.5">
+    <row r="32" spans="1:5" ht="75">
       <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="89.25">
+    <row r="33" spans="1:5" ht="87.5">
       <c r="C33" s="1" t="s">
         <v>52</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="357">
+    <row r="34" spans="1:5" ht="350">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="89.25">
+    <row r="35" spans="1:5" ht="87.5">
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75">
+    <row r="36" spans="1:5" ht="62.5">
       <c r="C36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="76.5">
+    <row r="37" spans="1:5" ht="75">
       <c r="C37" s="1" t="s">
         <v>58</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="204">
+    <row r="38" spans="1:5" ht="200">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="102">
+    <row r="39" spans="1:5" ht="100">
       <c r="C39" s="1" t="s">
         <v>62</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="102">
+    <row r="40" spans="1:5" ht="100">
       <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="102">
+    <row r="41" spans="1:5" ht="100">
       <c r="C41" s="1" t="s">
         <v>64</v>
       </c>
@@ -3356,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="114.75">
+    <row r="42" spans="1:5" ht="112.5">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="63.75">
+    <row r="43" spans="1:5" ht="62.5">
       <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="63.75">
+    <row r="44" spans="1:5" ht="62.5">
       <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="89.25">
+    <row r="45" spans="1:5" ht="87.5">
       <c r="C45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="165.75">
+    <row r="46" spans="1:5" ht="162.5">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="51">
+    <row r="47" spans="1:5" ht="50">
       <c r="C47" s="1" t="s">
         <v>74</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="51">
+    <row r="48" spans="1:5" ht="50">
       <c r="C48" s="1" t="s">
         <v>75</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="76.5">
+    <row r="49" spans="1:5" ht="75">
       <c r="C49" s="1" t="s">
         <v>76</v>
       </c>
@@ -3444,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="165.75">
+    <row r="50" spans="1:5" ht="162.5">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="114.75">
+    <row r="51" spans="1:5" ht="112.5">
       <c r="C51" s="1" t="s">
         <v>80</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="63.75">
+    <row r="52" spans="1:5" ht="62.5">
       <c r="C52" s="1" t="s">
         <v>81</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="102">
+    <row r="53" spans="1:5" ht="100">
       <c r="C53" s="1" t="s">
         <v>82</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="89.25">
+    <row r="54" spans="1:5" ht="87.5">
       <c r="A54" s="1" t="s">
         <v>83</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="89.25">
+    <row r="55" spans="1:5" ht="87.5">
       <c r="C55" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="51">
+    <row r="56" spans="1:5" ht="50">
       <c r="C56" s="1" t="s">
         <v>87</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="63.75">
+    <row r="57" spans="1:5" ht="62.5">
       <c r="C57" s="1" t="s">
         <v>88</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="89.25">
+    <row r="59" spans="1:5" ht="87.5">
       <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="63.75">
+    <row r="60" spans="1:5" ht="62.5">
       <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="114.75">
+    <row r="61" spans="1:5" ht="100">
       <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="408">
+    <row r="62" spans="1:5" ht="400">
       <c r="A62" s="1" t="s">
         <v>95</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="76.5">
+    <row r="63" spans="1:5" ht="75">
       <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="63.75">
+    <row r="64" spans="1:5" ht="62.5">
       <c r="C64" s="1" t="s">
         <v>99</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="51">
+    <row r="65" spans="1:5" ht="50">
       <c r="C65" s="1" t="s">
         <v>100</v>
       </c>
@@ -3620,7 +3622,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="76.5">
+    <row r="66" spans="1:5" ht="75">
       <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="51">
+    <row r="67" spans="1:5" ht="50">
       <c r="C67" s="1" t="s">
         <v>104</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="51">
+    <row r="68" spans="1:5" ht="50">
       <c r="C68" s="1" t="s">
         <v>105</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="63.75">
+    <row r="69" spans="1:5" ht="62.5">
       <c r="C69" s="1" t="s">
         <v>106</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="229.5">
+    <row r="70" spans="1:5" ht="225">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="51">
+    <row r="71" spans="1:5" ht="50">
       <c r="C71" s="1" t="s">
         <v>110</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="63.75">
+    <row r="72" spans="1:5" ht="62.5">
       <c r="C72" s="1" t="s">
         <v>111</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="89.25">
+    <row r="73" spans="1:5" ht="87.5">
       <c r="C73" s="1" t="s">
         <v>112</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="191.25">
+    <row r="74" spans="1:5" ht="187.5">
       <c r="A74" s="1" t="s">
         <v>113</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="89.25">
+    <row r="75" spans="1:5" ht="87.5">
       <c r="C75" s="1" t="s">
         <v>116</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="76.5">
+    <row r="76" spans="1:5" ht="75">
       <c r="C76" s="1" t="s">
         <v>117</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="76.5">
+    <row r="77" spans="1:5" ht="75">
       <c r="C77" s="1" t="s">
         <v>118</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="63.75">
+    <row r="79" spans="1:5" ht="62.5">
       <c r="C79" s="1" t="s">
         <v>122</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="102">
+    <row r="80" spans="1:5" ht="100">
       <c r="C80" s="1" t="s">
         <v>123</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="102">
+    <row r="81" spans="1:5" ht="100">
       <c r="C81" s="1" t="s">
         <v>124</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="216.75">
+    <row r="82" spans="1:5" ht="200">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="63.75">
+    <row r="83" spans="1:5" ht="62.5">
       <c r="C83" s="1" t="s">
         <v>128</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="102">
+    <row r="84" spans="1:5" ht="100">
       <c r="C84" s="1" t="s">
         <v>129</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="51">
+    <row r="85" spans="1:5" ht="50">
       <c r="C85" s="1" t="s">
         <v>130</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="76.5">
+    <row r="87" spans="1:5" ht="75">
       <c r="C87" s="1" t="s">
         <v>134</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="114.75">
+    <row r="88" spans="1:5" ht="112.5">
       <c r="C88" s="1" t="s">
         <v>135</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="102">
+    <row r="89" spans="1:5" ht="100">
       <c r="C89" s="1" t="s">
         <v>136</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="140.25">
+    <row r="90" spans="1:5" ht="125">
       <c r="A90" s="1" t="s">
         <v>137</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="102">
+    <row r="91" spans="1:5" ht="100">
       <c r="C91" s="1" t="s">
         <v>140</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="51">
+    <row r="92" spans="1:5" ht="50">
       <c r="C92" s="1" t="s">
         <v>141</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="89.25">
+    <row r="93" spans="1:5" ht="87.5">
       <c r="C93" s="1" t="s">
         <v>142</v>
       </c>
@@ -3928,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="114.75">
+    <row r="94" spans="1:5" ht="112.5">
       <c r="A94" s="1" t="s">
         <v>143</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="102">
+    <row r="95" spans="1:5" ht="100">
       <c r="C95" s="1" t="s">
         <v>146</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="63.75">
+    <row r="96" spans="1:5" ht="62.5">
       <c r="C96" s="1" t="s">
         <v>147</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="89.25">
+    <row r="97" spans="1:5" ht="87.5">
       <c r="C97" s="1" t="s">
         <v>148</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="280.5">
+    <row r="98" spans="1:5" ht="275">
       <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="89.25">
+    <row r="99" spans="1:5" ht="87.5">
       <c r="C99" s="1" t="s">
         <v>152</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="63.75">
+    <row r="100" spans="1:5" ht="62.5">
       <c r="C100" s="1" t="s">
         <v>153</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="102">
+    <row r="101" spans="1:5" ht="100">
       <c r="C101" s="1" t="s">
         <v>154</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="408">
+    <row r="102" spans="1:5" ht="400">
       <c r="A102" s="1" t="s">
         <v>155</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="102">
+    <row r="103" spans="1:5" ht="100">
       <c r="C103" s="1" t="s">
         <v>158</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="89.25">
+    <row r="104" spans="1:5" ht="87.5">
       <c r="C104" s="1" t="s">
         <v>159</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="114.75">
+    <row r="105" spans="1:5" ht="112.5">
       <c r="C105" s="1" t="s">
         <v>160</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="369.75">
+    <row r="106" spans="1:5" ht="362.5">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="102">
+    <row r="107" spans="1:5" ht="100">
       <c r="C107" s="1" t="s">
         <v>164</v>
       </c>
@@ -4085,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="102">
+    <row r="108" spans="1:5" ht="100">
       <c r="C108" s="1" t="s">
         <v>165</v>
       </c>
@@ -4096,7 +4098,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="140.25">
+    <row r="109" spans="1:5" ht="137.5">
       <c r="C109" s="1" t="s">
         <v>166</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="178.5">
+    <row r="110" spans="1:5" ht="175">
       <c r="A110" s="1" t="s">
         <v>167</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="102">
+    <row r="111" spans="1:5" ht="100">
       <c r="C111" s="1" t="s">
         <v>170</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="89.25">
+    <row r="112" spans="1:5" ht="87.5">
       <c r="C112" s="1" t="s">
         <v>171</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="89.25">
+    <row r="113" spans="1:5" ht="87.5">
       <c r="C113" s="1" t="s">
         <v>172</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="280.5">
+    <row r="114" spans="1:5" ht="275">
       <c r="A114" s="1" t="s">
         <v>173</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63.75">
+    <row r="115" spans="1:5" ht="62.5">
       <c r="C115" s="1" t="s">
         <v>176</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="38.25">
+    <row r="116" spans="1:5" ht="37.5">
       <c r="C116" s="1" t="s">
         <v>177</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="102">
+    <row r="117" spans="1:5" ht="100">
       <c r="C117" s="1" t="s">
         <v>178</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="102">
+    <row r="119" spans="1:5" ht="100">
       <c r="C119" s="1" t="s">
         <v>182</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="102">
+    <row r="120" spans="1:5" ht="100">
       <c r="C120" s="1" t="s">
         <v>183</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="51">
+    <row r="121" spans="1:5" ht="50">
       <c r="C121" s="1" t="s">
         <v>184</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="89.25">
+    <row r="123" spans="1:5" ht="87.5">
       <c r="C123" s="1" t="s">
         <v>188</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="89.25">
+    <row r="124" spans="1:5" ht="87.5">
       <c r="C124" s="1" t="s">
         <v>189</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="63.75">
+    <row r="125" spans="1:5" ht="62.5">
       <c r="C125" s="1" t="s">
         <v>190</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="165.75">
+    <row r="126" spans="1:5" ht="162.5">
       <c r="A126" s="1" t="s">
         <v>191</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="102">
+    <row r="127" spans="1:5" ht="100">
       <c r="C127" s="1" t="s">
         <v>194</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="89.25">
+    <row r="128" spans="1:5" ht="87.5">
       <c r="C128" s="1" t="s">
         <v>195</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="102">
+    <row r="129" spans="1:5" ht="100">
       <c r="C129" s="1" t="s">
         <v>196</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="369.75">
+    <row r="130" spans="1:5" ht="350">
       <c r="A130" s="1" t="s">
         <v>197</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="76.5">
+    <row r="131" spans="1:5" ht="75">
       <c r="C131" s="1" t="s">
         <v>200</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="114.75">
+    <row r="132" spans="1:5" ht="100">
       <c r="C132" s="1" t="s">
         <v>201</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="63.75">
+    <row r="133" spans="1:5" ht="62.5">
       <c r="C133" s="1" t="s">
         <v>202</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="267.75">
+    <row r="134" spans="1:5" ht="250">
       <c r="A134" s="1" t="s">
         <v>203</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="63.75">
+    <row r="135" spans="1:5" ht="62.5">
       <c r="C135" s="1" t="s">
         <v>206</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="102">
+    <row r="136" spans="1:5" ht="100">
       <c r="C136" s="1" t="s">
         <v>207</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="102">
+    <row r="137" spans="1:5" ht="100">
       <c r="C137" s="1" t="s">
         <v>208</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="242.25">
+    <row r="138" spans="1:5" ht="237.5">
       <c r="A138" s="1" t="s">
         <v>209</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="76.5">
+    <row r="139" spans="1:5" ht="75">
       <c r="C139" s="1" t="s">
         <v>212</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="102">
+    <row r="140" spans="1:5" ht="100">
       <c r="C140" s="1" t="s">
         <v>213</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="63.75">
+    <row r="141" spans="1:5" ht="62.5">
       <c r="C141" s="1" t="s">
         <v>214</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="140.25">
+    <row r="142" spans="1:5" ht="137.5">
       <c r="A142" s="1" t="s">
         <v>215</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="102">
+    <row r="143" spans="1:5" ht="100">
       <c r="C143" s="1" t="s">
         <v>218</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="114.75">
+    <row r="144" spans="1:5" ht="112.5">
       <c r="C144" s="1" t="s">
         <v>219</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="63.75">
+    <row r="145" spans="1:5" ht="62.5">
       <c r="C145" s="1" t="s">
         <v>220</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="178.5">
+    <row r="146" spans="1:5" ht="175">
       <c r="A146" s="1" t="s">
         <v>221</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="63.75">
+    <row r="147" spans="1:5" ht="62.5">
       <c r="C147" s="1" t="s">
         <v>224</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="89.25">
+    <row r="148" spans="1:5" ht="87.5">
       <c r="C148" s="1" t="s">
         <v>225</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="102">
+    <row r="149" spans="1:5" ht="100">
       <c r="C149" s="1" t="s">
         <v>226</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="369.75">
+    <row r="150" spans="1:5" ht="362.5">
       <c r="A150" s="1" t="s">
         <v>227</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="89.25">
+    <row r="151" spans="1:5" ht="87.5">
       <c r="C151" s="1" t="s">
         <v>230</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="76.5">
+    <row r="152" spans="1:5" ht="75">
       <c r="C152" s="1" t="s">
         <v>231</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="51">
+    <row r="153" spans="1:5" ht="50">
       <c r="C153" s="1" t="s">
         <v>232</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="140.25">
+    <row r="154" spans="1:5" ht="137.5">
       <c r="A154" s="1" t="s">
         <v>233</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="51">
+    <row r="155" spans="1:5" ht="50">
       <c r="C155" s="1" t="s">
         <v>236</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="102">
+    <row r="156" spans="1:5" ht="100">
       <c r="C156" s="1" t="s">
         <v>237</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="102">
+    <row r="157" spans="1:5" ht="100">
       <c r="C157" s="1" t="s">
         <v>238</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="204">
+    <row r="158" spans="1:5" ht="200">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="63.75">
+    <row r="159" spans="1:5" ht="62.5">
       <c r="C159" s="1" t="s">
         <v>242</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="102">
+    <row r="160" spans="1:5" ht="100">
       <c r="C160" s="1" t="s">
         <v>243</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="63.75">
+    <row r="161" spans="1:5" ht="62.5">
       <c r="C161" s="1" t="s">
         <v>244</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="127.5">
+    <row r="162" spans="1:5" ht="125">
       <c r="A162" s="1" t="s">
         <v>245</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="76.5">
+    <row r="163" spans="1:5" ht="75">
       <c r="C163" s="1" t="s">
         <v>248</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="76.5">
+    <row r="164" spans="1:5" ht="75">
       <c r="C164" s="1" t="s">
         <v>249</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="63.75">
+    <row r="165" spans="1:5" ht="62.5">
       <c r="C165" s="1" t="s">
         <v>250</v>
       </c>
@@ -4720,7 +4722,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="153">
+    <row r="166" spans="1:5" ht="150">
       <c r="A166" s="1" t="s">
         <v>251</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="114.75">
+    <row r="167" spans="1:5" ht="112.5">
       <c r="C167" s="1" t="s">
         <v>254</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="89.25">
+    <row r="168" spans="1:5" ht="87.5">
       <c r="C168" s="1" t="s">
         <v>255</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="89.25">
+    <row r="169" spans="1:5" ht="87.5">
       <c r="C169" s="1" t="s">
         <v>256</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="102">
+    <row r="171" spans="1:5" ht="100">
       <c r="C171" s="1" t="s">
         <v>260</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="63.75">
+    <row r="172" spans="1:5" ht="62.5">
       <c r="C172" s="1" t="s">
         <v>261</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="76.5">
+    <row r="173" spans="1:5" ht="75">
       <c r="C173" s="1" t="s">
         <v>262</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="382.5">
+    <row r="174" spans="1:5" ht="375">
       <c r="A174" s="1" t="s">
         <v>263</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="63.75">
+    <row r="175" spans="1:5" ht="62.5">
       <c r="C175" s="1" t="s">
         <v>266</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="89.25">
+    <row r="176" spans="1:5" ht="87.5">
       <c r="C176" s="1" t="s">
         <v>267</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="76.5">
+    <row r="177" spans="1:5" ht="75">
       <c r="C177" s="1" t="s">
         <v>268</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="102">
+    <row r="178" spans="1:5" ht="100">
       <c r="A178" s="1" t="s">
         <v>269</v>
       </c>
@@ -4866,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="51">
+    <row r="179" spans="1:5" ht="50">
       <c r="C179" s="1" t="s">
         <v>272</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="38.25">
+    <row r="180" spans="1:5" ht="37.5">
       <c r="C180" s="1" t="s">
         <v>273</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="63.75">
+    <row r="181" spans="1:5" ht="62.5">
       <c r="C181" s="1" t="s">
         <v>274</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="127.5">
+    <row r="182" spans="1:5" ht="125">
       <c r="A182" s="1" t="s">
         <v>275</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="89.25">
+    <row r="183" spans="1:5" ht="87.5">
       <c r="C183" s="1" t="s">
         <v>278</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="89.25">
+    <row r="184" spans="1:5" ht="87.5">
       <c r="C184" s="1" t="s">
         <v>279</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="89.25">
+    <row r="185" spans="1:5" ht="87.5">
       <c r="C185" s="1" t="s">
         <v>280</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="395.25">
+    <row r="186" spans="1:5" ht="387.5">
       <c r="A186" s="1" t="s">
         <v>281</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="89.25">
+    <row r="187" spans="1:5" ht="87.5">
       <c r="C187" s="1" t="s">
         <v>284</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="76.5">
+    <row r="188" spans="1:5" ht="75">
       <c r="C188" s="1" t="s">
         <v>285</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="102">
+    <row r="189" spans="1:5" ht="100">
       <c r="C189" s="1" t="s">
         <v>286</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="242.25">
+    <row r="190" spans="1:5" ht="237.5">
       <c r="A190" s="1" t="s">
         <v>287</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="114.75">
+    <row r="191" spans="1:5" ht="112.5">
       <c r="C191" s="1" t="s">
         <v>290</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="102">
+    <row r="192" spans="1:5" ht="100">
       <c r="C192" s="1" t="s">
         <v>291</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="63.75">
+    <row r="193" spans="1:5" ht="62.5">
       <c r="C193" s="1" t="s">
         <v>292</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="191.25">
+    <row r="194" spans="1:5" ht="187.5">
       <c r="A194" s="1" t="s">
         <v>293</v>
       </c>
@@ -5041,8 +5043,11 @@
       <c r="D194" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="63.75">
+      <c r="E194" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="62.5">
       <c r="C195" s="1" t="s">
         <v>296</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="102">
+    <row r="196" spans="1:5" ht="100">
       <c r="C196" s="1" t="s">
         <v>297</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="76.5">
+    <row r="197" spans="1:5" ht="75">
       <c r="C197" s="1" t="s">
         <v>298</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="409.5">
@@ -5083,10 +5088,10 @@
         <v>4</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="114.75">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="100">
       <c r="C199" s="1" t="s">
         <v>302</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="102">
+    <row r="200" spans="1:5" ht="100">
       <c r="C200" s="1" t="s">
         <v>303</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="63.75">
+    <row r="201" spans="1:5" ht="62.5">
       <c r="C201" s="1" t="s">
         <v>304</v>
       </c>
@@ -5110,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="280.5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="275">
       <c r="A202" s="1" t="s">
         <v>305</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="89.25">
+    <row r="203" spans="1:5" ht="87.5">
       <c r="C203" s="1" t="s">
         <v>308</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="89.25">
+    <row r="204" spans="1:5" ht="87.5">
       <c r="C204" s="1" t="s">
         <v>309</v>
       </c>
@@ -5143,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="102">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="100">
       <c r="C205" s="1" t="s">
         <v>310</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="409.5">
@@ -5171,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="89.25">
+    <row r="207" spans="1:5" ht="87.5">
       <c r="C207" s="1" t="s">
         <v>314</v>
       </c>
@@ -5179,10 +5184,10 @@
         <v>1</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="102">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="100">
       <c r="C208" s="1" t="s">
         <v>315</v>
       </c>
@@ -5190,10 +5195,10 @@
         <v>4</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="76.5">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="75">
       <c r="C209" s="1" t="s">
         <v>316</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="102">
+    <row r="210" spans="1:5" ht="100">
       <c r="A210" s="1" t="s">
         <v>317</v>
       </c>
@@ -5212,10 +5217,10 @@
         <v>319</v>
       </c>
       <c r="D210" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="50">
       <c r="C211" s="1" t="s">
         <v>320</v>
       </c>
@@ -5223,10 +5228,10 @@
         <v>4</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="63.75">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="62.5">
       <c r="C212" s="1" t="s">
         <v>321</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="76.5">
+    <row r="213" spans="1:5" ht="75">
       <c r="C213" s="1" t="s">
         <v>322</v>
       </c>
@@ -5242,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="178.5">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="175">
       <c r="A214" s="1" t="s">
         <v>323</v>
       </c>
@@ -5259,7 +5264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="63.75">
+    <row r="215" spans="1:5" ht="62.5">
       <c r="C215" s="1" t="s">
         <v>326</v>
       </c>
@@ -5267,10 +5272,10 @@
         <v>4</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="89.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="87.5">
       <c r="C216" s="1" t="s">
         <v>327</v>
       </c>
@@ -5278,10 +5283,10 @@
         <v>1</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="76.5">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="75">
       <c r="C217" s="1" t="s">
         <v>328</v>
       </c>
@@ -5289,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="114.75">
+    <row r="218" spans="1:5" ht="100">
       <c r="A218" s="1" t="s">
         <v>329</v>
       </c>
@@ -5303,10 +5308,10 @@
         <v>4</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="63.75">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="62.5">
       <c r="C219" s="1" t="s">
         <v>332</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="89.25">
+    <row r="220" spans="1:5" ht="87.5">
       <c r="C220" s="1" t="s">
         <v>333</v>
       </c>
@@ -5322,10 +5327,10 @@
         <v>1</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="76.5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="75">
       <c r="C221" s="1" t="s">
         <v>334</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="102">
+    <row r="222" spans="1:5" ht="87.5">
       <c r="A222" s="1" t="s">
         <v>335</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="102">
+    <row r="223" spans="1:5" ht="100">
       <c r="C223" s="1" t="s">
         <v>338</v>
       </c>
@@ -5355,10 +5360,10 @@
         <v>4</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="114.75">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="112.5">
       <c r="C224" s="1" t="s">
         <v>339</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="63.75">
+    <row r="225" spans="1:5" ht="62.5">
       <c r="C225" s="1" t="s">
         <v>340</v>
       </c>
@@ -5374,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="165.75">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="162.5">
       <c r="A226" s="1" t="s">
         <v>341</v>
       </c>
@@ -5391,10 +5396,10 @@
         <v>4</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="102">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="100">
       <c r="C227" s="1" t="s">
         <v>344</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="63.75">
+    <row r="228" spans="1:5" ht="62.5">
       <c r="C228" s="1" t="s">
         <v>345</v>
       </c>
@@ -5410,10 +5415,10 @@
         <v>1</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="63.75">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="62.5">
       <c r="C229" s="1" t="s">
         <v>346</v>
       </c>
@@ -5421,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="344.25">
+    <row r="230" spans="1:5" ht="337.5">
       <c r="A230" s="1" t="s">
         <v>347</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="89.25">
+    <row r="231" spans="1:5" ht="75">
       <c r="C231" s="1" t="s">
         <v>350</v>
       </c>
@@ -5443,10 +5448,10 @@
         <v>1</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="63.75">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="62.5">
       <c r="C232" s="1" t="s">
         <v>351</v>
       </c>
@@ -5454,10 +5459,10 @@
         <v>4</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="76.5">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="75">
       <c r="C233" s="1" t="s">
         <v>352</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="229.5">
+    <row r="234" spans="1:5" ht="225">
       <c r="A234" s="1" t="s">
         <v>353</v>
       </c>
@@ -5479,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="114.75">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="112.5">
       <c r="C235" s="1" t="s">
         <v>356</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="51">
+    <row r="236" spans="1:5" ht="50">
       <c r="C236" s="1" t="s">
         <v>357</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="89.25">
+    <row r="237" spans="1:5" ht="87.5">
       <c r="C237" s="1" t="s">
         <v>358</v>
       </c>
@@ -5506,10 +5511,10 @@
         <v>4</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="127.5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="125">
       <c r="A238" s="1" t="s">
         <v>359</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="102">
+    <row r="239" spans="1:5" ht="100">
       <c r="C239" s="1" t="s">
         <v>362</v>
       </c>
@@ -5531,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="63.75">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="62.5">
       <c r="C240" s="1" t="s">
         <v>363</v>
       </c>
@@ -5542,10 +5547,10 @@
         <v>4</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="63.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="62.5">
       <c r="C241" s="1" t="s">
         <v>364</v>
       </c>
@@ -5553,7 +5558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="344.25">
+    <row r="242" spans="1:5" ht="337.5">
       <c r="A242" s="1" t="s">
         <v>365</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="51">
+    <row r="243" spans="1:5" ht="50">
       <c r="C243" s="1" t="s">
         <v>368</v>
       </c>
@@ -5575,10 +5580,10 @@
         <v>4</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="102">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="100">
       <c r="C244" s="1" t="s">
         <v>369</v>
       </c>
@@ -5586,10 +5591,10 @@
         <v>1</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="114.75">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="112.5">
       <c r="C245" s="1" t="s">
         <v>370</v>
       </c>
@@ -5611,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="89.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="87.5">
       <c r="C247" s="1" t="s">
         <v>374</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="89.25">
+    <row r="248" spans="1:5" ht="87.5">
       <c r="C248" s="1" t="s">
         <v>375</v>
       </c>
@@ -5630,10 +5635,10 @@
         <v>4</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="102">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="100">
       <c r="C249" s="1" t="s">
         <v>376</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="102">
+    <row r="250" spans="1:5" ht="100">
       <c r="A250" s="1" t="s">
         <v>377</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="102">
+    <row r="251" spans="1:5" ht="100">
       <c r="C251" s="1" t="s">
         <v>380</v>
       </c>
@@ -5663,10 +5668,10 @@
         <v>4</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="102">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="100">
       <c r="C252" s="1" t="s">
         <v>381</v>
       </c>
@@ -5674,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="51">
+    <row r="253" spans="1:5" ht="50">
       <c r="C253" s="1" t="s">
         <v>382</v>
       </c>
@@ -5682,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="344.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="337.5">
       <c r="A254" s="1" t="s">
         <v>383</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="63.75">
+    <row r="255" spans="1:5" ht="50">
       <c r="C255" s="1" t="s">
         <v>386</v>
       </c>
@@ -5707,10 +5712,10 @@
         <v>4</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="51">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="50">
       <c r="C256" s="1" t="s">
         <v>387</v>
       </c>
@@ -5718,7 +5723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="51">
+    <row r="257" spans="1:5" ht="50">
       <c r="C257" s="1" t="s">
         <v>388</v>
       </c>
@@ -5726,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="255">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="250">
       <c r="A258" s="1" t="s">
         <v>389</v>
       </c>
@@ -5743,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="102">
+    <row r="259" spans="1:5" ht="100">
       <c r="C259" s="1" t="s">
         <v>392</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="76.5">
+    <row r="260" spans="1:5" ht="75">
       <c r="C260" s="1" t="s">
         <v>393</v>
       </c>
@@ -5759,10 +5764,10 @@
         <v>4</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="76.5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="75">
       <c r="C261" s="1" t="s">
         <v>394</v>
       </c>
@@ -5770,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="229.5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="225">
       <c r="A262" s="1" t="s">
         <v>395</v>
       </c>
@@ -5787,10 +5792,10 @@
         <v>4</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="76.5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="75">
       <c r="C263" s="1" t="s">
         <v>398</v>
       </c>
@@ -5798,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="89.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="75">
       <c r="C264" s="1" t="s">
         <v>399</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="63.75">
+    <row r="265" spans="1:5" ht="62.5">
       <c r="C265" s="1" t="s">
         <v>400</v>
       </c>
@@ -5831,10 +5836,10 @@
         <v>4</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="76.5">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="75">
       <c r="C267" s="1" t="s">
         <v>404</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="76.5">
+    <row r="268" spans="1:5" ht="75">
       <c r="C268" s="1" t="s">
         <v>405</v>
       </c>
@@ -5850,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="63.75">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="62.5">
       <c r="C269" s="1" t="s">
         <v>406</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="216.75">
+    <row r="270" spans="1:5" ht="212.5">
       <c r="A270" s="1" t="s">
         <v>407</v>
       </c>
@@ -5875,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="89.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="87.5">
       <c r="C271" s="1" t="s">
         <v>410</v>
       </c>
@@ -5886,7 +5891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="114.75">
+    <row r="272" spans="1:5" ht="112.5">
       <c r="C272" s="1" t="s">
         <v>411</v>
       </c>
@@ -5894,10 +5899,10 @@
         <v>4</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="89.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="87.5">
       <c r="C273" s="1" t="s">
         <v>412</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="280.5">
+    <row r="274" spans="1:5" ht="275">
       <c r="B274" s="1" t="s">
         <v>413</v>
       </c>
@@ -5916,10 +5921,10 @@
         <v>1</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="102">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="100">
       <c r="C275" s="1" t="s">
         <v>415</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="63.75">
+    <row r="276" spans="1:5" ht="62.5">
       <c r="C276" s="1" t="s">
         <v>416</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="102">
+    <row r="277" spans="1:5" ht="100">
       <c r="C277" s="1" t="s">
         <v>417</v>
       </c>
@@ -5943,10 +5948,10 @@
         <v>4</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="280.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="262.5">
       <c r="A278" s="1" t="s">
         <v>418</v>
       </c>
@@ -5960,10 +5965,10 @@
         <v>4</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="89.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="87.5">
       <c r="C279" s="1" t="s">
         <v>421</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="63.75">
+    <row r="280" spans="1:5" ht="62.5">
       <c r="C280" s="1" t="s">
         <v>422</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="102">
+    <row r="281" spans="1:5" ht="100">
       <c r="C281" s="1" t="s">
         <v>423</v>
       </c>
@@ -5987,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="216.75">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="212.5">
       <c r="A282" s="1" t="s">
         <v>424</v>
       </c>
@@ -6004,18 +6009,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="89.25">
+    <row r="283" spans="1:5" ht="87.5">
       <c r="C283" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D283" s="1">
+        <v>4</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D283" s="1">
-        <v>4</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="102">
+    </row>
+    <row r="284" spans="1:5" ht="100">
       <c r="C284" s="1" t="s">
         <v>427</v>
       </c>
@@ -6023,10 +6028,10 @@
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="89.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="87.5">
       <c r="C285" s="1" t="s">
         <v>428</v>
       </c>
@@ -6048,10 +6053,10 @@
         <v>4</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="102">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="100">
       <c r="C287" s="1" t="s">
         <v>432</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="114.75">
+    <row r="288" spans="1:5" ht="112.5">
       <c r="C288" s="1" t="s">
         <v>433</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="102">
+    <row r="289" spans="1:5" ht="100">
       <c r="C289" s="1" t="s">
         <v>434</v>
       </c>
@@ -6075,10 +6080,10 @@
         <v>1</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="267.75">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="262.5">
       <c r="A290" s="1" t="s">
         <v>435</v>
       </c>
@@ -6092,10 +6097,10 @@
         <v>4</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="63.75">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="62.5">
       <c r="C291" s="1" t="s">
         <v>438</v>
       </c>
@@ -6103,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="89.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="87.5">
       <c r="C292" s="1" t="s">
         <v>439</v>
       </c>
@@ -6114,7 +6119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="51">
+    <row r="293" spans="1:5" ht="50">
       <c r="C293" s="1" t="s">
         <v>440</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="280.5">
+    <row r="294" spans="1:5" ht="275">
       <c r="A294" s="1" t="s">
         <v>441</v>
       </c>
@@ -6136,10 +6141,10 @@
         <v>4</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="102">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="100">
       <c r="C295" s="1" t="s">
         <v>444</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="63.75">
+    <row r="296" spans="1:5" ht="62.5">
       <c r="C296" s="1" t="s">
         <v>445</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="102">
+    <row r="297" spans="1:5" ht="100">
       <c r="C297" s="1" t="s">
         <v>446</v>
       </c>
@@ -6163,10 +6168,10 @@
         <v>1</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="102">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="100">
       <c r="A298" s="1" t="s">
         <v>447</v>
       </c>
@@ -6180,7 +6185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="63.75">
+    <row r="299" spans="1:5" ht="62.5">
       <c r="C299" s="1" t="s">
         <v>450</v>
       </c>
@@ -6188,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="63.75">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="62.5">
       <c r="C300" s="1" t="s">
         <v>451</v>
       </c>
@@ -6199,10 +6204,10 @@
         <v>4</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="114.75">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="112.5">
       <c r="C301" s="1" t="s">
         <v>452</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="191.25">
+    <row r="302" spans="1:5" ht="187.5">
       <c r="A302" s="1" t="s">
         <v>453</v>
       </c>
@@ -6224,7 +6229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="114.75">
+    <row r="303" spans="1:5" ht="112.5">
       <c r="C303" s="1" t="s">
         <v>456</v>
       </c>
@@ -6232,10 +6237,10 @@
         <v>4</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="76.5">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="75">
       <c r="C304" s="1" t="s">
         <v>457</v>
       </c>
@@ -6243,7 +6248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="89.25">
+    <row r="305" spans="1:5" ht="87.5">
       <c r="C305" s="1" t="s">
         <v>458</v>
       </c>
@@ -6251,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="140.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="137.5">
       <c r="A306" s="1" t="s">
         <v>459</v>
       </c>
@@ -6268,10 +6273,10 @@
         <v>4</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="89.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="87.5">
       <c r="C307" s="1" t="s">
         <v>462</v>
       </c>
@@ -6279,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="51">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="50">
       <c r="C308" s="1" t="s">
         <v>463</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="76.5">
+    <row r="309" spans="1:5" ht="75">
       <c r="C309" s="1" t="s">
         <v>464</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="409.5">
@@ -6315,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="114.75">
+    <row r="311" spans="1:5" ht="112.5">
       <c r="C311" s="1" t="s">
         <v>468</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="63.75">
+    <row r="312" spans="1:5" ht="62.5">
       <c r="C312" s="1" t="s">
         <v>469</v>
       </c>
@@ -6331,10 +6336,10 @@
         <v>1</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="63.75">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="62.5">
       <c r="C313" s="1" t="s">
         <v>470</v>
       </c>
@@ -6342,10 +6347,10 @@
         <v>4</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="191.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="187.5">
       <c r="A314" s="1" t="s">
         <v>471</v>
       </c>
@@ -6359,10 +6364,10 @@
         <v>4</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="63.75">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="62.5">
       <c r="C315" s="1" t="s">
         <v>474</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="102">
+    <row r="316" spans="1:5" ht="100">
       <c r="C316" s="1" t="s">
         <v>475</v>
       </c>
@@ -6378,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="63.75">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="62.5">
       <c r="C317" s="1" t="s">
         <v>476</v>
       </c>
@@ -6389,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="165.75">
+    <row r="318" spans="1:5" ht="162.5">
       <c r="A318" s="1" t="s">
         <v>477</v>
       </c>
@@ -6403,7 +6408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="51">
+    <row r="319" spans="1:5" ht="50">
       <c r="C319" s="1" t="s">
         <v>480</v>
       </c>
@@ -6411,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="89.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="87.5">
       <c r="C320" s="1" t="s">
         <v>481</v>
       </c>
@@ -6422,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="76.5">
+    <row r="321" spans="1:5" ht="75">
       <c r="C321" s="1" t="s">
         <v>482</v>
       </c>
@@ -6430,10 +6435,10 @@
         <v>4</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="114.75">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="112.5">
       <c r="A322" s="1" t="s">
         <v>483</v>
       </c>
@@ -6447,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="102">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="100">
       <c r="C323" s="1" t="s">
         <v>486</v>
       </c>
@@ -6458,10 +6463,10 @@
         <v>4</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="63.75">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="62.5">
       <c r="C324" s="1" t="s">
         <v>487</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="63.75">
+    <row r="325" spans="1:5" ht="62.5">
       <c r="C325" s="1" t="s">
         <v>488</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="140.25">
+    <row r="326" spans="1:5" ht="137.5">
       <c r="A326" s="1" t="s">
         <v>489</v>
       </c>
@@ -6491,10 +6496,10 @@
         <v>4</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="63.75">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="62.5">
       <c r="C327" s="1" t="s">
         <v>492</v>
       </c>
@@ -6502,7 +6507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="76.5">
+    <row r="328" spans="1:5" ht="75">
       <c r="C328" s="1" t="s">
         <v>493</v>
       </c>
@@ -6510,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="89.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="87.5">
       <c r="C329" s="1" t="s">
         <v>494</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="89.25">
+    <row r="330" spans="1:5" ht="87.5">
       <c r="A330" s="1" t="s">
         <v>495</v>
       </c>
@@ -6535,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="63.75">
+    <row r="331" spans="1:5" ht="62.5">
       <c r="C331" s="1" t="s">
         <v>498</v>
       </c>
@@ -6543,10 +6548,10 @@
         <v>4</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="127.5">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="125">
       <c r="C332" s="1" t="s">
         <v>499</v>
       </c>
@@ -6554,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="102">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="100">
       <c r="C333" s="1" t="s">
         <v>500</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="216.75">
+    <row r="334" spans="1:5" ht="212.5">
       <c r="A334" s="1" t="s">
         <v>501</v>
       </c>
@@ -6579,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="63.75">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="62.5">
       <c r="C335" s="1" t="s">
         <v>504</v>
       </c>
@@ -6590,10 +6595,10 @@
         <v>4</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="102">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="100">
       <c r="C336" s="1" t="s">
         <v>505</v>
       </c>
@@ -6601,7 +6606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="51">
+    <row r="337" spans="1:5" ht="50">
       <c r="C337" s="1" t="s">
         <v>506</v>
       </c>
@@ -6609,7 +6614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="165.75">
+    <row r="338" spans="1:5" ht="162.5">
       <c r="A338" s="1" t="s">
         <v>507</v>
       </c>
@@ -6623,10 +6628,10 @@
         <v>1</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="63.75">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="62.5">
       <c r="C339" s="1" t="s">
         <v>510</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="63.75">
+    <row r="340" spans="1:5" ht="62.5">
       <c r="C340" s="1" t="s">
         <v>511</v>
       </c>
@@ -6642,10 +6647,10 @@
         <v>4</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="63.75">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="62.5">
       <c r="C341" s="1" t="s">
         <v>512</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="204">
+    <row r="342" spans="1:5" ht="200">
       <c r="A342" s="1" t="s">
         <v>513</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="63.75">
+    <row r="343" spans="1:5" ht="62.5">
       <c r="C343" s="1" t="s">
         <v>516</v>
       </c>
@@ -6675,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="63.75">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="62.5">
       <c r="C344" s="1" t="s">
         <v>517</v>
       </c>
@@ -6686,10 +6691,10 @@
         <v>4</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="63.75">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="62.5">
       <c r="C345" s="1" t="s">
         <v>518</v>
       </c>
@@ -6697,7 +6702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="114.75">
+    <row r="346" spans="1:5" ht="112.5">
       <c r="A346" s="1" t="s">
         <v>519</v>
       </c>
@@ -6711,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="102">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="100">
       <c r="C347" s="1" t="s">
         <v>522</v>
       </c>
@@ -6722,10 +6727,10 @@
         <v>4</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="89.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="87.5">
       <c r="C348" s="1" t="s">
         <v>523</v>
       </c>
@@ -6733,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="114.75">
+    <row r="349" spans="1:5" ht="112.5">
       <c r="C349" s="1" t="s">
         <v>524</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="165.75">
+    <row r="350" spans="1:5" ht="162.5">
       <c r="A350" s="1" t="s">
         <v>525</v>
       </c>
@@ -6755,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="102">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="100">
       <c r="C351" s="1" t="s">
         <v>528</v>
       </c>
@@ -6766,10 +6771,10 @@
         <v>4</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="102">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="100">
       <c r="C352" s="1" t="s">
         <v>529</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="63.75">
+    <row r="353" spans="1:5" ht="62.5">
       <c r="C353" s="1" t="s">
         <v>530</v>
       </c>
@@ -6799,10 +6804,10 @@
         <v>4</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="89.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="87.5">
       <c r="C355" s="1" t="s">
         <v>534</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="114.75">
+    <row r="356" spans="1:5" ht="100">
       <c r="C356" s="1" t="s">
         <v>535</v>
       </c>
@@ -6818,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="76.5">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="75">
       <c r="C357" s="1" t="s">
         <v>536</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="140.25">
+    <row r="358" spans="1:5" ht="137.5">
       <c r="A358" s="1" t="s">
         <v>537</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="63.75">
+    <row r="359" spans="1:5" ht="62.5">
       <c r="C359" s="1" t="s">
         <v>540</v>
       </c>
@@ -6851,10 +6856,10 @@
         <v>1</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="76.5">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="75">
       <c r="C360" s="1" t="s">
         <v>541</v>
       </c>
@@ -6862,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="63.75">
+    <row r="361" spans="1:5" ht="62.5">
       <c r="C361" s="1" t="s">
         <v>542</v>
       </c>
@@ -6870,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="409.5">
@@ -6887,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="102">
+    <row r="363" spans="1:5" ht="100">
       <c r="C363" s="1" t="s">
         <v>546</v>
       </c>
@@ -6895,7 +6900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="102">
+    <row r="364" spans="1:5" ht="100">
       <c r="C364" s="1" t="s">
         <v>547</v>
       </c>
@@ -6903,10 +6908,10 @@
         <v>4</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="63.75">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="62.5">
       <c r="C365" s="1" t="s">
         <v>548</v>
       </c>
@@ -6914,10 +6919,10 @@
         <v>1</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="382.5">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="375">
       <c r="A366" s="1" t="s">
         <v>549</v>
       </c>
@@ -6931,10 +6936,10 @@
         <v>4</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="89.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="87.5">
       <c r="C367" s="1" t="s">
         <v>552</v>
       </c>
@@ -6942,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="76.5">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="75">
       <c r="C368" s="1" t="s">
         <v>553</v>
       </c>
@@ -6953,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="63.75">
+    <row r="369" spans="1:5" ht="62.5">
       <c r="C369" s="1" t="s">
         <v>554</v>
       </c>
@@ -6961,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="140.25">
+    <row r="370" spans="1:5" ht="137.5">
       <c r="A370" s="1" t="s">
         <v>555</v>
       </c>
@@ -6969,16 +6974,16 @@
         <v>556</v>
       </c>
       <c r="C370" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D370" s="1">
-        <v>1</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="76.5">
+    </row>
+    <row r="371" spans="1:5" ht="75">
       <c r="C371" s="1" t="s">
         <v>557</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="102">
+    <row r="372" spans="1:5" ht="100">
       <c r="C372" s="1" t="s">
         <v>558</v>
       </c>
@@ -6994,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="76.5">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="75">
       <c r="C373" s="1" t="s">
         <v>559</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="255">
+    <row r="374" spans="1:5" ht="250">
       <c r="A374" s="1" t="s">
         <v>560</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="102">
+    <row r="375" spans="1:5" ht="100">
       <c r="C375" s="1" t="s">
         <v>563</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="63.75">
+    <row r="376" spans="1:5" ht="62.5">
       <c r="C376" s="1" t="s">
         <v>564</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="51">
+    <row r="377" spans="1:5" ht="50">
       <c r="C377" s="1" t="s">
         <v>565</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="409.5">
@@ -7060,10 +7065,10 @@
         <v>1</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="89.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="87.5">
       <c r="C379" s="1" t="s">
         <v>569</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="76.5">
+    <row r="380" spans="1:5" ht="75">
       <c r="C380" s="1" t="s">
         <v>570</v>
       </c>
@@ -7079,10 +7084,10 @@
         <v>4</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="89.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="87.5">
       <c r="C381" s="1" t="s">
         <v>571</v>
       </c>
@@ -7104,10 +7109,10 @@
         <v>4</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="76.5">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="75">
       <c r="C383" s="1" t="s">
         <v>575</v>
       </c>
@@ -7115,10 +7120,10 @@
         <v>1</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="63.75">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="62.5">
       <c r="C384" s="1" t="s">
         <v>576</v>
       </c>
@@ -7126,7 +7131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="102">
+    <row r="385" spans="1:10" ht="100">
       <c r="C385" s="1" t="s">
         <v>577</v>
       </c>
@@ -7134,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="280.5">
+    <row r="386" spans="1:10" ht="275">
       <c r="A386" s="1" t="s">
         <v>578</v>
       </c>
@@ -7148,10 +7153,10 @@
         <v>4</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" ht="102">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" ht="100">
       <c r="C387" s="1" t="s">
         <v>581</v>
       </c>
@@ -7159,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="63.75">
+    <row r="388" spans="1:10" ht="62.5">
       <c r="C388" s="1" t="s">
         <v>582</v>
       </c>
@@ -7167,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="89.25">
+    <row r="389" spans="1:10" ht="75">
       <c r="C389" s="1" t="s">
         <v>583</v>
       </c>
@@ -7175,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" ht="102">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="100">
       <c r="A390" s="1" t="s">
         <v>584</v>
       </c>
@@ -7192,7 +7197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="63.75">
+    <row r="391" spans="1:10" ht="62.5">
       <c r="C391" s="1" t="s">
         <v>587</v>
       </c>
@@ -7200,10 +7205,10 @@
         <v>4</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" ht="63.75">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="62.5">
       <c r="C392" s="1" t="s">
         <v>588</v>
       </c>
@@ -7211,10 +7216,10 @@
         <v>1</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" ht="89.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="87.5">
       <c r="C393" s="1" t="s">
         <v>589</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="344.25">
+    <row r="394" spans="1:10" ht="337.5">
       <c r="A394" s="1" t="s">
         <v>590</v>
       </c>
@@ -7236,10 +7241,10 @@
         <v>1</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" ht="51">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="50">
       <c r="C395" s="1" t="s">
         <v>593</v>
       </c>
@@ -7247,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="102">
+    <row r="396" spans="1:10" ht="100">
       <c r="C396" s="1" t="s">
         <v>594</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="63.75">
+    <row r="397" spans="1:10" ht="62.5">
       <c r="C397" s="1" t="s">
         <v>595</v>
       </c>
@@ -7263,11 +7268,11 @@
         <v>4</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10" ht="267.75">
+    <row r="398" spans="1:10" ht="262.5">
       <c r="A398" s="1" t="s">
         <v>596</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="102">
+    <row r="399" spans="1:10" ht="100">
       <c r="C399" s="1" t="s">
         <v>599</v>
       </c>
@@ -7289,10 +7294,10 @@
         <v>4</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" ht="89.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="87.5">
       <c r="C400" s="1" t="s">
         <v>600</v>
       </c>
@@ -7300,10 +7305,10 @@
         <v>1</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="401" spans="3:4" ht="63.75">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4" ht="62.5">
       <c r="C401" s="1" t="s">
         <v>601</v>
       </c>
